--- a/TDStore/Curtis/Tony laptops.xlsx
+++ b/TDStore/Curtis/Tony laptops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\Curtis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A6A60-F4B7-4E34-B209-56A307CE1B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD610E-051C-4208-81C4-3AE5E46A376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$38</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -736,7 +736,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,7 +755,7 @@
     <col min="29" max="29" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>90</v>
       </c>
@@ -951,7 +951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>90</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>75</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>150</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>110</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>90</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>170</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>90</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>65</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>110</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>90</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>90</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>40</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>65</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>75</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>110</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>80</v>
       </c>
